--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/74.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/74.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2231008931247908</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.569002608220942</v>
+        <v>-1.561149826824773</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0153853640413138</v>
+        <v>0.01113236437555934</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1466882368407754</v>
+        <v>-0.140006525670854</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2015511066180279</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.573959981443479</v>
+        <v>-1.566281916169774</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02606823181758157</v>
+        <v>0.02122025292397545</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1102386760488154</v>
+        <v>-0.1019372992030756</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.182688188572773</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.648369374374287</v>
+        <v>-1.641143839597956</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03169197385766848</v>
+        <v>-0.03810137971960487</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1168243720523375</v>
+        <v>-0.108781134342491</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1666816398386689</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.784481890879203</v>
+        <v>-1.780429578651415</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08175522602975815</v>
+        <v>-0.0908058359772371</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.124448920675918</v>
+        <v>-0.114774999156404</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1472359676435576</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.82910769399676</v>
+        <v>-1.831777230426486</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1056677245205582</v>
+        <v>-0.1182378412232655</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1224404722771383</v>
+        <v>-0.1131128349643104</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1192992427229965</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.65004334370979</v>
+        <v>-1.653905199623901</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.104200738699506</v>
+        <v>-0.1220863179748457</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1185306087798274</v>
+        <v>-0.1108824498694274</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08192511224745121</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.32890724052466</v>
+        <v>-1.328682942799875</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.109938038396647</v>
+        <v>-0.1322843878617528</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.07906994940881917</v>
+        <v>-0.06861688842426131</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.03773304601916669</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8304350600477484</v>
+        <v>-0.821468660123259</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.047786319372968</v>
+        <v>-0.07169252178728285</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08373691610347571</v>
+        <v>-0.07555044265359084</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.01076998613218668</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3068383863566352</v>
+        <v>-0.2874921173367285</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05433266489845757</v>
+        <v>-0.07800748650194121</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.00953450668711869</v>
+        <v>-0.0004996369308527428</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.06121271234474678</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2588876961256515</v>
+        <v>0.285367419803293</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.07964604040721522</v>
+        <v>-0.1043723067837277</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06265630629221605</v>
+        <v>0.07312982952535083</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1120175326351524</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9041678530367175</v>
+        <v>0.93844211940304</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1566202974961828</v>
+        <v>-0.1821493136245586</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1332479158443093</v>
+        <v>0.1411746761391796</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1626517947469184</v>
       </c>
       <c r="E13" t="n">
-        <v>1.580155548985239</v>
+        <v>1.62041895810811</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3141481311559556</v>
+        <v>-0.3415659702298923</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2369490176129625</v>
+        <v>0.2454943674225039</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2129732653351226</v>
       </c>
       <c r="E14" t="n">
-        <v>2.241264042180104</v>
+        <v>2.283523307548785</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5515338249349189</v>
+        <v>-0.5811851971419811</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3497762822469171</v>
+        <v>0.3558960685905342</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2632211887018247</v>
       </c>
       <c r="E15" t="n">
-        <v>2.941845786898949</v>
+        <v>2.986497561332007</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8486787286731839</v>
+        <v>-0.8774163827803313</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4934543216583652</v>
+        <v>0.4988799655694887</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3151080585971883</v>
       </c>
       <c r="E16" t="n">
-        <v>3.613369564619461</v>
+        <v>3.662127954939993</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.086725510483094</v>
+        <v>-1.11388914546894</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6542151905932897</v>
+        <v>0.6599084177550343</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3696825284674484</v>
       </c>
       <c r="E17" t="n">
-        <v>4.266217605465741</v>
+        <v>4.321896957862632</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.375491123429115</v>
+        <v>-1.40411780918821</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8242312919614622</v>
+        <v>0.8308043958120138</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.42685294573886</v>
       </c>
       <c r="E18" t="n">
-        <v>4.922163315942741</v>
+        <v>4.983718481719447</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.589312963952646</v>
+        <v>-1.616978711038187</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9792454170845177</v>
+        <v>0.987993815360707</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4855947592108378</v>
       </c>
       <c r="E19" t="n">
-        <v>5.403399200031849</v>
+        <v>5.466138028187773</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.818562552893606</v>
+        <v>-1.845895394934992</v>
       </c>
       <c r="G19" t="n">
-        <v>1.148125076647111</v>
+        <v>1.154627349637204</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5445121917938035</v>
       </c>
       <c r="E20" t="n">
-        <v>5.830567527304279</v>
+        <v>5.894974815728782</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.971341570864414</v>
+        <v>-1.996995721512934</v>
       </c>
       <c r="G20" t="n">
-        <v>1.276791695698715</v>
+        <v>1.282414092000001</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6022700828498685</v>
       </c>
       <c r="E21" t="n">
-        <v>6.128847298829002</v>
+        <v>6.188825297446164</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.170482535043574</v>
+        <v>-2.196460933631081</v>
       </c>
       <c r="G21" t="n">
-        <v>1.395093398836553</v>
+        <v>1.398938727549891</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6578662421962858</v>
       </c>
       <c r="E22" t="n">
-        <v>6.453107829969914</v>
+        <v>6.515309917605475</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.275937881122917</v>
+        <v>-2.298258259272521</v>
       </c>
       <c r="G22" t="n">
-        <v>1.492762859332382</v>
+        <v>1.495205737008641</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7101666419537475</v>
       </c>
       <c r="E23" t="n">
-        <v>6.585185348457376</v>
+        <v>6.641078767454763</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.369019075880154</v>
+        <v>-2.389051617236948</v>
       </c>
       <c r="G23" t="n">
-        <v>1.595025307624166</v>
+        <v>1.596673305644168</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7570442187099919</v>
       </c>
       <c r="E24" t="n">
-        <v>6.723492834626946</v>
+        <v>6.776749771596155</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.426018243310256</v>
+        <v>-2.444480700593552</v>
       </c>
       <c r="G24" t="n">
-        <v>1.604680340914225</v>
+        <v>1.601519710518653</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7958084512169763</v>
       </c>
       <c r="E25" t="n">
-        <v>6.808153027085225</v>
+        <v>6.856174776456988</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.43679319120512</v>
+        <v>-2.453137018751145</v>
       </c>
       <c r="G25" t="n">
-        <v>1.653465489559818</v>
+        <v>1.647570787950547</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8245297373520728</v>
       </c>
       <c r="E26" t="n">
-        <v>6.805648762663235</v>
+        <v>6.851526697991787</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.460453846636511</v>
+        <v>-2.475877660006137</v>
       </c>
       <c r="G26" t="n">
-        <v>1.683359260711561</v>
+        <v>1.674938258412602</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8417626487227076</v>
       </c>
       <c r="E27" t="n">
-        <v>6.747279411588042</v>
+        <v>6.787336624206024</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.373268927507666</v>
+        <v>-2.38348667263359</v>
       </c>
       <c r="G27" t="n">
-        <v>1.645966862465942</v>
+        <v>1.635107704548088</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.846234298990345</v>
       </c>
       <c r="E28" t="n">
-        <v>6.630403769774102</v>
+        <v>6.665057374748658</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.311670476205125</v>
+        <v>-2.317768226281043</v>
       </c>
       <c r="G28" t="n">
-        <v>1.59478763073685</v>
+        <v>1.582123072886865</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8381486709268299</v>
       </c>
       <c r="E29" t="n">
-        <v>6.477237543099453</v>
+        <v>6.509377439537293</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.232816053275763</v>
+        <v>-2.235720118554563</v>
       </c>
       <c r="G29" t="n">
-        <v>1.545324079849976</v>
+        <v>1.531811125693609</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8186896157160033</v>
       </c>
       <c r="E30" t="n">
-        <v>6.299373382392476</v>
+        <v>6.32902790263778</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.194154208608815</v>
+        <v>-2.191427220481162</v>
       </c>
       <c r="G30" t="n">
-        <v>1.478173276097046</v>
+        <v>1.463695448219322</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7891398378755674</v>
       </c>
       <c r="E31" t="n">
-        <v>6.029218184527154</v>
+        <v>6.052126458818564</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.024651237474187</v>
+        <v>-2.010863616981153</v>
       </c>
       <c r="G31" t="n">
-        <v>1.401084115612223</v>
+        <v>1.384613579526933</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7517577036978085</v>
       </c>
       <c r="E32" t="n">
-        <v>5.777323182488041</v>
+        <v>5.795336257312205</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.90685951653165</v>
+        <v>-1.888364004846806</v>
       </c>
       <c r="G32" t="n">
-        <v>1.320804418368524</v>
+        <v>1.302558388714407</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7097698147167041</v>
       </c>
       <c r="E33" t="n">
-        <v>5.429474400795316</v>
+        <v>5.441605366163181</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.8442592020584</v>
+        <v>-1.822224508379312</v>
       </c>
       <c r="G33" t="n">
-        <v>1.243853771566376</v>
+        <v>1.224439819724254</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6658056898363413</v>
       </c>
       <c r="E34" t="n">
-        <v>5.128707679058938</v>
+        <v>5.138095129098375</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.767243233462718</v>
+        <v>-1.742347760030666</v>
       </c>
       <c r="G34" t="n">
-        <v>1.129732663214713</v>
+        <v>1.108673861390831</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6224261970524333</v>
       </c>
       <c r="E35" t="n">
-        <v>4.738044003247714</v>
+        <v>4.73784567683843</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.718822470243706</v>
+        <v>-1.692751204528042</v>
       </c>
       <c r="G35" t="n">
-        <v>1.053334497124141</v>
+        <v>1.034855512640071</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5827115202743918</v>
       </c>
       <c r="E36" t="n">
-        <v>4.283616812832599</v>
+        <v>4.276678536545906</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.641677432080077</v>
+        <v>-1.613219166366961</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9895347800804604</v>
+        <v>0.9692299334156815</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5479325796974538</v>
       </c>
       <c r="E37" t="n">
-        <v>3.91624232394014</v>
+        <v>3.907105142940989</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.605223149230753</v>
+        <v>-1.577945397858612</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9093510980031607</v>
+        <v>0.8899465902757658</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5185921672938434</v>
       </c>
       <c r="E38" t="n">
-        <v>3.574815540262323</v>
+        <v>3.563613246176025</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.518659180645261</v>
+        <v>-1.488079137156631</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8170883931889996</v>
+        <v>0.7962436579656146</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.495399198350898</v>
       </c>
       <c r="E39" t="n">
-        <v>3.155817946248564</v>
+        <v>3.138329019791792</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.491841829866101</v>
+        <v>-1.462241613280481</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7501248977115045</v>
+        <v>0.7315168436594878</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4773438100384733</v>
       </c>
       <c r="E40" t="n">
-        <v>2.753868553337614</v>
+        <v>2.730920928568171</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.482071106170627</v>
+        <v>-1.456152520309729</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6790122878302607</v>
+        <v>0.6604183999503357</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.463018278797515</v>
       </c>
       <c r="E41" t="n">
-        <v>2.407678787798741</v>
+        <v>2.382782527357128</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.449481827273656</v>
+        <v>-1.423069786418231</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6262417227695338</v>
+        <v>0.6080822641670878</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4511149729961112</v>
       </c>
       <c r="E42" t="n">
-        <v>2.039695153506338</v>
+        <v>2.010999210905906</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.415053307033447</v>
+        <v>-1.39092752895171</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5613622286086408</v>
+        <v>0.5431586974707984</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4403794517873588</v>
       </c>
       <c r="E43" t="n">
-        <v>1.795528585352812</v>
+        <v>1.770566216108104</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.388126561925356</v>
+        <v>-1.366931607447481</v>
       </c>
       <c r="G43" t="n">
-        <v>0.484690183190963</v>
+        <v>0.4675003203672382</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4291025746602964</v>
       </c>
       <c r="E44" t="n">
-        <v>1.574729905074115</v>
+        <v>1.554050441858467</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.382665502584003</v>
+        <v>-1.364898761752321</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4150870576470466</v>
+        <v>0.3990871532790251</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4167179586236551</v>
       </c>
       <c r="E45" t="n">
-        <v>1.353468463173756</v>
+        <v>1.333125840050066</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.311084622014172</v>
+        <v>-1.293898694238251</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3567003923615188</v>
+        <v>0.3411931559784644</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4032275183891517</v>
       </c>
       <c r="E46" t="n">
-        <v>1.129044816858704</v>
+        <v>1.109753638508043</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.25019920137358</v>
+        <v>-1.233018782664583</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3151588797121511</v>
+        <v>0.3027949595143342</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3883090705685275</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9976724589375849</v>
+        <v>0.9817858839462971</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.196181226159222</v>
+        <v>-1.18079833728675</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2407549958482676</v>
+        <v>0.2276245283383772</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3723672993886605</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8267292603069664</v>
+        <v>0.8142189563308685</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.120299338340437</v>
+        <v>-1.106612455071167</v>
       </c>
       <c r="G48" t="n">
-        <v>0.17783043343603</v>
+        <v>0.1676323635491228</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3561927085873991</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6618901078287518</v>
+        <v>0.650066076189541</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.059772007049941</v>
+        <v>-1.046814681643393</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1315369570594555</v>
+        <v>0.1211893553560247</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3404294341677537</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5795138171154803</v>
+        <v>0.5700445180817354</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.001090213179169</v>
+        <v>-0.9896683434254505</v>
       </c>
       <c r="G50" t="n">
-        <v>0.113637211612024</v>
+        <v>0.1050808436686335</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3260546470460881</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4587393299380785</v>
+        <v>0.450486747685099</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9800078010684675</v>
+        <v>-0.9701032857476829</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1005020220447698</v>
+        <v>0.09453491555591888</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3141981292220776</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3175545368147707</v>
+        <v>0.3105170973234354</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9749567737082135</v>
+        <v>-0.9695327038162114</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04518941610314232</v>
+        <v>0.0380433692924372</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3049583676696545</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2505768751651838</v>
+        <v>0.2447215240339453</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9466322996204077</v>
+        <v>-0.9383584681092907</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04687204254381275</v>
+        <v>0.04337299803716133</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2981142014948812</v>
       </c>
       <c r="E54" t="n">
-        <v>0.144883065188964</v>
+        <v>0.1408236698751295</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9135102152508774</v>
+        <v>-0.9064767108073453</v>
       </c>
       <c r="G54" t="n">
-        <v>0.008119691777389823</v>
+        <v>0.004549816410279864</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2938295824056601</v>
       </c>
       <c r="E55" t="n">
-        <v>0.08753210448525213</v>
+        <v>0.08881493006911219</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9222617615653091</v>
+        <v>-0.9186076761752097</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.007614203359131852</v>
+        <v>-0.008985174013784751</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2910895008399378</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01071524930841466</v>
+        <v>0.01143300202772777</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9304112455658435</v>
+        <v>-0.9291150408194524</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04098498274982773</v>
+        <v>-0.04246298670472908</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2887885937436054</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.08567295962267556</v>
+        <v>-0.08442004040212021</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9569688831899893</v>
+        <v>-0.9587483118066198</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.07781703018826383</v>
+        <v>-0.08010880202887763</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2863978551067559</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.125621564921287</v>
+        <v>-0.1232322038951526</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9548534014909612</v>
+        <v>-0.9580990289190833</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1043250862100887</v>
+        <v>-0.1060108606890017</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2829647359532636</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1982735655031629</v>
+        <v>-0.1959975338537621</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9616334888559639</v>
+        <v>-0.96535604407784</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1167629853066067</v>
+        <v>-0.1187305092082326</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2776328182193773</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2761701977972126</v>
+        <v>-0.2734628849085754</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9955803592450558</v>
+        <v>-1.002690203615971</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1257648006613254</v>
+        <v>-0.1272176203102859</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2701950294229835</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.352861131444346</v>
+        <v>-0.3492849600007509</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9759987743665146</v>
+        <v>-0.9836115178466854</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1617799321758064</v>
+        <v>-0.1645376136763252</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2605089771378853</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4772196601609495</v>
+        <v>-0.4742652262702681</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.005896480566061</v>
+        <v>-1.018834130733592</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1848345902454976</v>
+        <v>-0.1862653736267599</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2487709666305259</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5314398968323942</v>
+        <v>-0.5273584652508616</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.034799406680945</v>
+        <v>-1.048055008710978</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.218129816718371</v>
+        <v>-0.2205837125284788</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2363299922977332</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6699551535259761</v>
+        <v>-0.6683496540222493</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.074217567535678</v>
+        <v>-1.088918906128626</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2665450708704589</v>
+        <v>-0.2696191302143591</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2243874423115365</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8266282948028826</v>
+        <v>-0.8306711629159435</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.135842777163282</v>
+        <v>-1.154193479088965</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3275697922032866</v>
+        <v>-0.3320699128710852</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2137668294740374</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9357180510333087</v>
+        <v>-0.9409068050666765</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.164929863515358</v>
+        <v>-1.182689521260993</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3596860783543058</v>
+        <v>-0.3651542207817044</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2058919718614409</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.020711935545303</v>
+        <v>-1.029951427787338</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.222963161508153</v>
+        <v>-1.242918575928003</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4216064165671535</v>
+        <v>-0.4262419028793841</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2018812036270054</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.119046419119882</v>
+        <v>-1.132510578683488</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.282228129463367</v>
+        <v>-1.306678155484091</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4380076958111067</v>
+        <v>-0.4452765161132733</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.202960077765554</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.273851199699805</v>
+        <v>-1.29475732166892</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.339051006751882</v>
+        <v>-1.363688341048041</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4702451814344661</v>
+        <v>-0.4788188635881909</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.210387089913396</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.330530054238721</v>
+        <v>-1.35292834633483</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.426449992481224</v>
+        <v>-1.452338671978817</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5068914946165887</v>
+        <v>-0.5174311266528181</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2249840657248245</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.386596615339451</v>
+        <v>-1.412364882374265</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.464324827587522</v>
+        <v>-1.491172871739548</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5621316956786364</v>
+        <v>-0.5745585766413053</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.245694655101807</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.4564570930097</v>
+        <v>-1.4866617329379</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.511055881279818</v>
+        <v>-1.537722913232894</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5541199383512159</v>
+        <v>-0.5666916290730445</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.272162097403124</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.504908549601578</v>
+        <v>-1.539183602977461</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.518189335937553</v>
+        <v>-1.543184759583808</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5815125931192118</v>
+        <v>-0.596076992048607</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.3040442764735349</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.551346048727752</v>
+        <v>-1.588657384988624</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.550131692975668</v>
+        <v>-1.575899173000921</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5876339534819501</v>
+        <v>-0.6016694819865883</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.3399741998665027</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.547001755952962</v>
+        <v>-1.587317894716397</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.541510003238744</v>
+        <v>-1.564909371496</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6062986722223337</v>
+        <v>-0.6215524915268587</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.3791861086057026</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.459916000028759</v>
+        <v>-1.501129329691335</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.603063594996329</v>
+        <v>-1.631531304824173</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5881864341935267</v>
+        <v>-0.6040871753569061</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.420880326471558</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.397388090435089</v>
+        <v>-1.443010247656429</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.611135952059919</v>
+        <v>-1.639993231620285</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5645604071828033</v>
+        <v>-0.5790775855385596</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.463637047651182</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.228513152929859</v>
+        <v>-1.271526373457643</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.559963016407312</v>
+        <v>-1.585144961319441</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.524330052461479</v>
+        <v>-0.5392611978461374</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.5065409121547183</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.105350091735884</v>
+        <v>-1.148791445464661</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.537495467469866</v>
+        <v>-1.558642414364541</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5303884520593654</v>
+        <v>-0.5461443834635853</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.5491059413322465</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9249210668707467</v>
+        <v>-0.9670551977192842</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.504285238029543</v>
+        <v>-1.522406133163517</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5161357089159877</v>
+        <v>-0.5329131787299317</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.5906217187078675</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.7789654217907765</v>
+        <v>-0.8212892219434307</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.47182581571008</v>
+        <v>-1.486215498517011</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4836463802332202</v>
+        <v>-0.4995833238363896</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.6307166750565494</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5701387309486929</v>
+        <v>-0.6090547797037311</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.466988854950323</v>
+        <v>-1.477899168489619</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4365438580282971</v>
+        <v>-0.4509351148543493</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.6691335911194266</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3611184357546894</v>
+        <v>-0.4001792942688873</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.375065351256803</v>
+        <v>-1.381081252338414</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3544445946803745</v>
+        <v>-0.36703674765078</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.7050541124950468</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.171540424746992</v>
+        <v>-0.2076830518102984</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.342233673415152</v>
+        <v>-1.348226751219505</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3315016919682957</v>
+        <v>-0.3443236517304111</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.7371258654161502</v>
       </c>
       <c r="E85" t="n">
-        <v>0.02084563637310588</v>
+        <v>-0.01414638271252971</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.220905131507052</v>
+        <v>-1.223815492862337</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3030387041978154</v>
+        <v>-0.3174866257122343</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.7641127136530913</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2813395048718845</v>
+        <v>0.2501629081362818</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.11676881345136</v>
+        <v>-1.116826265149287</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2412678978014912</v>
+        <v>-0.2537231111083435</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.7841925807510342</v>
       </c>
       <c r="E87" t="n">
-        <v>0.511047133377143</v>
+        <v>0.4837772521006086</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9897808857926235</v>
+        <v>-0.985271321010097</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1775248454461772</v>
+        <v>-0.1894370221561808</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.7944623302944022</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6803155756626976</v>
+        <v>0.6547991516872922</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8421087728608749</v>
+        <v>-0.8357214032666367</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1544009305351488</v>
+        <v>-0.1658550676808539</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.7918685880694307</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8582883436890452</v>
+        <v>0.8380747901333017</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7277059150864983</v>
+        <v>-0.7202497865088969</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0974387525543982</v>
+        <v>-0.1079311640169886</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.7740141105804491</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9934446435777713</v>
+        <v>0.975812481380961</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5432182819170873</v>
+        <v>-0.5337269466156441</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07876616371840814</v>
+        <v>-0.089653653980445</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.7386712704706982</v>
       </c>
       <c r="E91" t="n">
-        <v>1.113188148230721</v>
+        <v>1.096725482241037</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3483940651780947</v>
+        <v>-0.3364944806210615</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1007111383075823</v>
+        <v>-0.110163123130993</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.6857794494081705</v>
       </c>
       <c r="E92" t="n">
-        <v>1.171319822418598</v>
+        <v>1.157863532950599</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2078719341048545</v>
+        <v>-0.1979540396215388</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.06327151948832417</v>
+        <v>-0.07212065498827663</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.6176642746079199</v>
       </c>
       <c r="E93" t="n">
-        <v>1.19983317880096</v>
+        <v>1.188882727774071</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1047705336214168</v>
+        <v>-0.09636527151367114</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06200443409567712</v>
+        <v>-0.06972971994302089</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.5383284888241598</v>
       </c>
       <c r="E94" t="n">
-        <v>1.18301163645162</v>
+        <v>1.174768498313368</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0442198203244211</v>
+        <v>0.05559840455230377</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02633558678788223</v>
+        <v>-0.03310544302859649</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.4533661915295497</v>
       </c>
       <c r="E95" t="n">
-        <v>1.191125705021925</v>
+        <v>1.186834928897259</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1264953738139294</v>
+        <v>0.1373482356552976</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06252700844394894</v>
+        <v>-0.0676945132191791</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.3694547778822839</v>
       </c>
       <c r="E96" t="n">
-        <v>1.110224270225312</v>
+        <v>1.106799204617362</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2084561234791775</v>
+        <v>0.218991033458043</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09007391708583229</v>
+        <v>-0.09444811622392689</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.2924459854659825</v>
       </c>
       <c r="E97" t="n">
-        <v>1.059526688347338</v>
+        <v>1.05714519741681</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2561363107016179</v>
+        <v>0.2672111092390895</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05947970742511081</v>
+        <v>-0.06108678094795882</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.2242498460351351</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9421867108926144</v>
+        <v>0.9387758114567558</v>
       </c>
       <c r="F98" t="n">
-        <v>0.238872468979192</v>
+        <v>0.248431487102851</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1158028336426133</v>
+        <v>-0.1178081340031504</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1665006803308925</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9070671962581535</v>
+        <v>0.9059008480892696</v>
       </c>
       <c r="F99" t="n">
-        <v>0.220033034116344</v>
+        <v>0.227958220392093</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1031902184236309</v>
+        <v>-0.1044273974529733</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1139168778577669</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8503348250691127</v>
+        <v>0.8486364584372293</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2134190057686385</v>
+        <v>0.2208357838682074</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.104891733093757</v>
+        <v>-0.1059368817903006</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.06684706399610209</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7892140885698857</v>
+        <v>0.7904103431020743</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1897803866049448</v>
+        <v>0.1964809860043218</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09284576475844279</v>
+        <v>-0.09255142318275957</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.01689478762978319</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7780558670189851</v>
+        <v>0.7787185290690527</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1629040101087356</v>
+        <v>0.1667823932236205</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07755102095676401</v>
+        <v>-0.07609190523131827</v>
       </c>
     </row>
   </sheetData>
